--- a/ig/ch-epl/StructureDefinition-ch-idmp-packagedproductdefinition.xlsx
+++ b/ig/ch-epl/StructureDefinition-ch-idmp-packagedproductdefinition.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0-ballot</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:35:11+00:00</t>
+    <t>2025-12-11T12:35:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -527,7 +527,7 @@
     <t>A high level categorisation of a package.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/package-type</t>
+    <t>http://hl7.org/fhir/ValueSet/package-type|5.0.0</t>
   </si>
   <si>
     <t>PackagedProductDefinition.packageFor</t>
@@ -561,7 +561,7 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0</t>
   </si>
   <si>
     <t>PackagedProductDefinition.statusDate</t>
@@ -676,7 +676,7 @@
     <t>The prescription supply types appropriate to a medicinal product</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/legal-status-of-supply</t>
+    <t>http://hl7.org/fhir/ValueSet/legal-status-of-supply|5.0.0</t>
   </si>
   <si>
     <t>PackagedProductDefinition.legalStatusOfSupply.jurisdiction</t>
@@ -691,7 +691,7 @@
     <t>Jurisdiction codes</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/jurisdiction</t>
+    <t>http://hl7.org/fhir/ValueSet/jurisdiction|5.0.0</t>
   </si>
   <si>
     <t>PackagedProductDefinition.marketingStatus</t>
@@ -1012,7 +1012,7 @@
     <t>PackagedProductDefinition.manufacturer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|5.0.0)
 </t>
   </si>
   <si>
@@ -1028,7 +1028,7 @@
     <t>PackagedProductDefinition.attachedDocument</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference)
+    <t xml:space="preserve">Reference(DocumentReference|5.0.0)
 </t>
   </si>
   <si>
@@ -1189,7 +1189,7 @@
     <t>A material used in the construction of packages and their components.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/package-material</t>
+    <t>http://hl7.org/fhir/ValueSet/package-material|5.0.0</t>
   </si>
   <si>
     <t>Package Item (Container).Material</t>
@@ -1268,7 +1268,7 @@
     <t>This value set includes all observable entity codes from SNOMED CT - provided as an exemplar value set.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/product-characteristic-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/product-characteristic-codes|5.0.0</t>
   </si>
   <si>
     <t>Physical Characteristics, all attributes</t>
@@ -1817,7 +1817,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.1015625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="46.01171875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="49.5390625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
